--- a/UITest/Case/exampleAppCase.xlsx
+++ b/UITest/Case/exampleAppCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11860" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="13920" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="封页" sheetId="5" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89">
   <si>
     <t>大数据系统软件国家工程实验室</t>
   </si>
@@ -184,6 +184,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>//input[@placeholder=</t>
     </r>
     <r>
@@ -206,6 +211,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>//input[@placeholder=</t>
     </r>
     <r>
@@ -293,10 +303,13 @@
     <t>step11</t>
   </si>
   <si>
+    <t>step12</t>
+  </si>
+  <si>
     <t>验证输入测试存在</t>
   </si>
   <si>
-    <t>//*[@id="app"]//section[@addinname="Grid"]//div[contains(text(),"测试数据")]</t>
+    <t>//*[@id="app"]//section[@addinname="Grid"]//div[contains(text(),"输入测试")]</t>
   </si>
   <si>
     <t>存在</t>
@@ -388,9 +401,55 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -403,15 +462,29 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -424,8 +497,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -439,98 +544,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -545,115 +558,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -666,60 +733,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -919,6 +932,75 @@
       </top>
       <bottom style="double">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -943,60 +1025,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1005,172 +1033,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1184,9 +1197,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1879,354 +1889,354 @@
     <col min="1" max="1" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1" ht="16.8" spans="1:8">
-      <c r="A1" s="8"/>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-    </row>
-    <row r="2" s="7" customFormat="1" ht="16.8" spans="1:8">
-      <c r="A2" s="9"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-    </row>
-    <row r="3" s="7" customFormat="1" ht="16.8" spans="1:8">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-    </row>
-    <row r="4" s="7" customFormat="1" ht="34.8" spans="1:8">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" s="7" customFormat="1" ht="34.8" spans="1:8">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-    </row>
-    <row r="6" s="7" customFormat="1" ht="16.8" spans="1:8">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="7" s="7" customFormat="1" ht="16.8" spans="1:8">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-    </row>
-    <row r="8" s="7" customFormat="1" ht="16.8" spans="1:8">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-    </row>
-    <row r="9" s="7" customFormat="1" ht="16.8" spans="1:8">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="25" t="s">
+    <row r="1" s="6" customFormat="1" ht="16.8" spans="1:8">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+    </row>
+    <row r="2" s="6" customFormat="1" ht="16.8" spans="1:8">
+      <c r="A2" s="8"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" s="6" customFormat="1" ht="16.8" spans="1:8">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" s="6" customFormat="1" ht="34.8" spans="1:8">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" s="6" customFormat="1" ht="34.8" spans="1:8">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" s="6" customFormat="1" ht="16.8" spans="1:8">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" s="6" customFormat="1" ht="16.8" spans="1:8">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" s="6" customFormat="1" ht="16.8" spans="1:8">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" s="6" customFormat="1" ht="16.8" spans="1:8">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="24" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="7" customFormat="1" ht="16.8" spans="1:8">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-    </row>
-    <row r="11" s="7" customFormat="1" ht="16.8" spans="1:8">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-    </row>
-    <row r="12" s="7" customFormat="1" ht="16.8" spans="1:8">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-    </row>
-    <row r="13" s="7" customFormat="1" ht="16.8" spans="1:8">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-    </row>
-    <row r="14" s="7" customFormat="1" ht="17.55" spans="1:8">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-    </row>
-    <row r="15" s="7" customFormat="1" ht="17.55" spans="1:8">
-      <c r="A15" s="11" t="s">
+    <row r="10" s="6" customFormat="1" ht="16.8" spans="1:8">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" s="6" customFormat="1" ht="16.8" spans="1:8">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" s="6" customFormat="1" ht="16.8" spans="1:8">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" s="6" customFormat="1" ht="16.8" spans="1:8">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" s="6" customFormat="1" ht="17.55" spans="1:8">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" s="6" customFormat="1" ht="17.55" spans="1:8">
+      <c r="A15" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="26"/>
-    </row>
-    <row r="16" s="7" customFormat="1" ht="16.8" spans="1:8">
-      <c r="A16" s="14" t="s">
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="25"/>
+    </row>
+    <row r="16" s="6" customFormat="1" ht="16.8" spans="1:8">
+      <c r="A16" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="27" t="s">
+      <c r="B16" s="14"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="28"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="29"/>
-    </row>
-    <row r="17" s="7" customFormat="1" ht="16.8" spans="1:8">
-      <c r="A17" s="14" t="s">
+      <c r="F16" s="27"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="28"/>
+    </row>
+    <row r="17" s="6" customFormat="1" ht="16.8" spans="1:8">
+      <c r="A17" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="27" t="s">
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="18"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="31"/>
-    </row>
-    <row r="18" s="7" customFormat="1" ht="17.55" spans="1:8">
-      <c r="A18" s="21" t="s">
+      <c r="F17" s="17"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="30"/>
+    </row>
+    <row r="18" s="6" customFormat="1" ht="17.55" spans="1:8">
+      <c r="A18" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="32"/>
-    </row>
-    <row r="19" s="7" customFormat="1" ht="17.55" spans="1:8">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-    </row>
-    <row r="20" s="7" customFormat="1" ht="16.8"/>
-    <row r="21" s="7" customFormat="1" ht="16.8"/>
-    <row r="22" s="7" customFormat="1" ht="16.8"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="31"/>
+    </row>
+    <row r="19" s="6" customFormat="1" ht="17.55" spans="1:8">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" s="6" customFormat="1" ht="16.8"/>
+    <row r="21" s="6" customFormat="1" ht="16.8"/>
+    <row r="22" s="6" customFormat="1" ht="16.8"/>
     <row r="169" spans="1:1">
-      <c r="A169" s="33" t="s">
+      <c r="A169" s="32" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="170" spans="1:1">
-      <c r="A170" s="33" t="s">
+      <c r="A170" s="32" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="171" spans="1:1">
-      <c r="A171" s="33" t="s">
+      <c r="A171" s="32" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="172" spans="1:1">
-      <c r="A172" s="33" t="s">
+      <c r="A172" s="32" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="173" spans="1:1">
-      <c r="A173" s="33" t="s">
+      <c r="A173" s="32" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="174" spans="1:1">
-      <c r="A174" s="33" t="s">
+      <c r="A174" s="32" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="175" spans="1:1">
-      <c r="A175" s="33" t="s">
+      <c r="A175" s="32" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="176" spans="1:1">
-      <c r="A176" s="33" t="s">
+      <c r="A176" s="32" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="177" spans="1:1">
-      <c r="A177" s="33" t="s">
+      <c r="A177" s="32" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="178" spans="1:1">
-      <c r="A178" s="33" t="s">
+      <c r="A178" s="32" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="179" spans="1:1">
-      <c r="A179" s="33" t="s">
+      <c r="A179" s="32" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="180" spans="1:1">
-      <c r="A180" s="33" t="s">
+      <c r="A180" s="32" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="181" spans="1:1">
-      <c r="A181" s="33" t="s">
+      <c r="A181" s="32" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="182" spans="1:1">
-      <c r="A182" s="33" t="s">
+      <c r="A182" s="32" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="183" spans="1:1">
-      <c r="A183" s="33" t="s">
+      <c r="A183" s="32" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="184" spans="1:1">
-      <c r="A184" s="33" t="s">
+      <c r="A184" s="32" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="185" spans="1:1">
-      <c r="A185" s="33" t="s">
+      <c r="A185" s="32" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="186" spans="1:1">
-      <c r="A186" s="33" t="s">
+      <c r="A186" s="32" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="187" spans="1:1">
-      <c r="A187" s="33" t="s">
+      <c r="A187" s="32" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="188" spans="1:1">
-      <c r="A188" s="33" t="s">
+      <c r="A188" s="32" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="189" spans="1:1">
-      <c r="A189" s="33" t="s">
+      <c r="A189" s="32" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="190" spans="1:1">
-      <c r="A190" s="33" t="s">
+      <c r="A190" s="32" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="191" spans="1:1">
-      <c r="A191" s="33" t="s">
+      <c r="A191" s="32" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="192" spans="1:1">
-      <c r="A192" s="33" t="s">
+      <c r="A192" s="32" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="193" spans="1:1">
-      <c r="A193" s="33" t="s">
+      <c r="A193" s="32" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="194" spans="1:1">
-      <c r="A194" s="33" t="s">
+      <c r="A194" s="32" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="195" spans="1:1">
-      <c r="A195" s="33" t="s">
+      <c r="A195" s="32" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="196" spans="1:1">
-      <c r="A196" s="33" t="s">
+      <c r="A196" s="32" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2247,16 +2257,16 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
   <cols>
     <col min="1" max="1" width="9.57142857142857" style="4" customWidth="1"/>
-    <col min="2" max="2" width="37.6428571428571" style="4" customWidth="1"/>
+    <col min="2" max="2" width="33.2321428571429" style="4" customWidth="1"/>
     <col min="3" max="3" width="9.57142857142857" style="4" customWidth="1"/>
     <col min="4" max="4" width="21.7142857142857" style="4" customWidth="1"/>
     <col min="5" max="5" width="18.2946428571429" style="4" customWidth="1"/>
@@ -2316,11 +2326,11 @@
       <c r="D2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5" t="s">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2330,19 +2340,19 @@
       <c r="C3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="3" t="s">
         <v>55</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="3" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2350,19 +2360,19 @@
       <c r="C4" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="3" t="s">
         <v>59</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="3" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2370,13 +2380,13 @@
       <c r="C5" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="3" t="s">
         <v>64</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -2384,16 +2394,16 @@
       </c>
     </row>
     <row r="6" s="3" customFormat="1" spans="3:8">
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="3" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2401,33 +2411,33 @@
       <c r="C7" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" s="3" customFormat="1" spans="3:7">
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2435,36 +2445,36 @@
       <c r="C9" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" s="3" customFormat="1" spans="3:8">
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="3" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2472,42 +2482,56 @@
       <c r="C11" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" s="3" customFormat="1" spans="3:9">
-      <c r="C12" s="5" t="s">
+    <row r="12" s="3" customFormat="1" spans="3:8">
+      <c r="C12" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" s="3" customFormat="1" spans="3:9">
+      <c r="C13" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="D13" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="G12" s="5" t="s">
+      <c r="F13" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I12" s="5" t="s">
-        <v>87</v>
+      <c r="I13" s="3" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G$1:G$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G12 G1:G11 G13:G1048576">
       <formula1>封页!$A$169:$A$196</formula1>
     </dataValidation>
   </dataValidations>
